--- a/results/outputs/main/v4/supplemental_tables/pathway_enrichment_table.xlsx
+++ b/results/outputs/main/v4/supplemental_tables/pathway_enrichment_table.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="T2 vs. T1 hallmark pathways (ma" r:id="rId3" sheetId="1"/>
-    <sheet name="T2 vs. T1 reactome pathways (no" r:id="rId4" sheetId="2"/>
+    <sheet name="T2 vs. T1 reactome pathways (no" r:id="rId3" sheetId="1"/>
+    <sheet name="T2 vs. T1 hallmark pathways (ma" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
